--- a/stats/bryum/month_active_temp_stats_X1.xlsx
+++ b/stats/bryum/month_active_temp_stats_X1.xlsx
@@ -1,40 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2096910_ed_ac_uk/Documents/dissertation/dissertation/dissertation/stats/bryum/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_60C6943CB8EF6523E5520776CEAE4490E3F4E823" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2923170A-072D-4F4A-B5BD-2CB26FBB8B1D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t xml:space="preserve">Year</t>
+    <t>Year</t>
   </si>
   <si>
-    <t xml:space="preserve">Month</t>
+    <t>Month</t>
   </si>
   <si>
-    <t xml:space="preserve">mean_temp</t>
+    <t>mean_temp</t>
   </si>
   <si>
-    <t xml:space="preserve">max_temp</t>
+    <t>max_temp</t>
   </si>
   <si>
-    <t xml:space="preserve">min_temp</t>
+    <t>min_temp</t>
+  </si>
+  <si>
+    <t>Bryum_X1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -63,14 +73,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,202 +377,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:N16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2019</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B3">
         <v>12</v>
       </c>
-      <c r="C2" t="n">
-        <v>1.48130841121496</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C3">
+        <v>1.4813084112149599</v>
+      </c>
+      <c r="D3">
         <v>13.3</v>
       </c>
-      <c r="E2" t="n">
-        <v>-4.4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="E3">
+        <v>-4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2020</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C4">
         <v>1.80343406593407</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4">
         <v>15</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E4">
         <v>-5.4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>2020</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
-        <v>-1.8906976744186</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C5">
+        <v>-1.8906976744185999</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E5">
         <v>-6.2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>2020</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B6">
         <v>12</v>
       </c>
-      <c r="C5" t="n">
-        <v>1.98411214953271</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.3</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="C6">
+        <v>1.9841121495327101</v>
+      </c>
+      <c r="D6">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E6">
         <v>-4.2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>2021</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="C6" t="n">
-        <v>1.76952380952381</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C7">
+        <v>1.7695238095238099</v>
+      </c>
+      <c r="D7">
         <v>10.5</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E7">
         <v>-5.2</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>2021</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="C7" t="n">
-        <v>-2.64107142857143</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C8">
+        <v>-2.6410714285714301</v>
+      </c>
+      <c r="D8">
         <v>5.3</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E8">
         <v>-6.7</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>2021</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B9">
         <v>12</v>
       </c>
-      <c r="C8" t="n">
-        <v>2.89580952380952</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C9">
+        <v>2.8958095238095201</v>
+      </c>
+      <c r="D9">
         <v>12</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E9">
         <v>-2.4</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>2022</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C10">
         <v>1.69926470588235</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10">
         <v>9</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E10">
         <v>-6.2</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>2022</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B11">
         <v>12</v>
       </c>
-      <c r="C10" t="n">
-        <v>2.62447916666667</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C11">
+        <v>2.6244791666666698</v>
+      </c>
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E11">
         <v>-3.2</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>2023</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
-        <v>1.35190311418685</v>
-      </c>
-      <c r="D11" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="C12">
+        <v>1.3519031141868501</v>
+      </c>
+      <c r="D12">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E12">
         <v>-3.2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/stats/bryum/month_active_temp_stats_X1.xlsx
+++ b/stats/bryum/month_active_temp_stats_X1.xlsx
@@ -1,50 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2096910_ed_ac_uk/Documents/dissertation/dissertation/dissertation/stats/bryum/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_60C6943CB8EF6523E5520776CEAE4490E3F4E823" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2923170A-072D-4F4A-B5BD-2CB26FBB8B1D}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Year</t>
+    <t xml:space="preserve">Year</t>
   </si>
   <si>
-    <t>Month</t>
+    <t xml:space="preserve">Month</t>
   </si>
   <si>
-    <t>mean_temp</t>
+    <t xml:space="preserve">mean_temp</t>
   </si>
   <si>
-    <t>max_temp</t>
+    <t xml:space="preserve">max_temp</t>
   </si>
   <si>
-    <t>min_temp</t>
+    <t xml:space="preserve">min_temp</t>
   </si>
   <si>
-    <t>Bryum_X1</t>
+    <t xml:space="preserve">sd_temp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -73,30 +66,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,227 +354,235 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:N16"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.48130841121496</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-4.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.90466759103316</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="n">
+        <v>1.80343406593407</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-5.4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.19124089537565</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2019</v>
-      </c>
-      <c r="B3">
+      <c r="C4" t="n">
+        <v>-1.8906976744186</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-6.2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.76052317805393</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B5" t="n">
         <v>12</v>
       </c>
-      <c r="C3">
-        <v>1.4813084112149599</v>
-      </c>
-      <c r="D3">
-        <v>13.3</v>
-      </c>
-      <c r="E3">
-        <v>-4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2020</v>
-      </c>
-      <c r="B4">
+      <c r="C5" t="n">
+        <v>1.98411214953271</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.7632211299775</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>1.80343406593407</v>
-      </c>
-      <c r="D4">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>-5.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2020</v>
-      </c>
-      <c r="B5">
+      <c r="C6" t="n">
+        <v>1.76952380952381</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-5.2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.82160730020763</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B7" t="n">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>-1.8906976744185999</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
+      <c r="C7" t="n">
+        <v>-2.64107142857143</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-6.7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.32094084570598</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.89580952380952</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.91136584933734</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.69926470588235</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" t="n">
         <v>-6.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2020</v>
-      </c>
-      <c r="B6">
+      <c r="F9" t="n">
+        <v>2.63436455485784</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B10" t="n">
         <v>12</v>
       </c>
-      <c r="C6">
-        <v>1.9841121495327101</v>
-      </c>
-      <c r="D6">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="E6">
-        <v>-4.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2021</v>
-      </c>
-      <c r="B7">
+      <c r="C10" t="n">
+        <v>2.62447916666667</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.55167476658906</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>1.7695238095238099</v>
-      </c>
-      <c r="D7">
-        <v>10.5</v>
-      </c>
-      <c r="E7">
-        <v>-5.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2021</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>-2.6410714285714301</v>
-      </c>
-      <c r="D8">
-        <v>5.3</v>
-      </c>
-      <c r="E8">
-        <v>-6.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2021</v>
-      </c>
-      <c r="B9">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>2.8958095238095201</v>
-      </c>
-      <c r="D9">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>-2.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2022</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1.69926470588235</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>-6.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2022</v>
-      </c>
-      <c r="B11">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>2.6244791666666698</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
+      <c r="C11" t="n">
+        <v>1.35190311418685</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="E11" t="n">
         <v>-3.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2023</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1.3519031141868501</v>
-      </c>
-      <c r="D12">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E12">
-        <v>-3.2</v>
+      <c r="F11" t="n">
+        <v>2.11755349965801</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>